--- a/crypto_list.xlsx
+++ b/crypto_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="296">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">DeFi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">1inch1INCH</t>
@@ -1003,7 +1006,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1022,6 +1025,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1051,7 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1091,6 +1098,9 @@
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -1098,16 +1108,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,16 +1129,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,16 +1150,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,16 +1171,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,16 +1192,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,16 +1213,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,16 +1234,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,16 +1255,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,16 +1276,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,16 +1297,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1278,16 +1318,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,16 +1339,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,16 +1360,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1332,19 +1381,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,16 +1402,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,16 +1423,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,16 +1444,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,16 +1465,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,16 +1486,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,16 +1507,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,16 +1528,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,16 +1549,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,16 +1570,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,16 +1591,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,10 +1612,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>8</v>
@@ -1545,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,16 +1633,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,16 +1654,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,16 +1675,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,16 +1696,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,16 +1717,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,16 +1738,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,10 +1759,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>8</v>
@@ -1674,7 +1771,7 @@
         <v>9</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,16 +1780,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,16 +1801,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,16 +1822,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,16 +1843,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,16 +1864,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,16 +1885,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,16 +1906,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,16 +1927,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,16 +1948,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,16 +1969,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,16 +1990,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,16 +2011,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,16 +2032,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,16 +2053,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,16 +2074,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,16 +2095,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,16 +2116,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,16 +2137,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,16 +2158,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,16 +2179,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,16 +2200,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,16 +2221,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,16 +2242,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,16 +2263,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,16 +2284,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,16 +2305,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,16 +2326,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2169,19 +2347,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,16 +2368,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,16 +2389,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,16 +2410,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,16 +2431,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,16 +2452,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,16 +2473,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,16 +2494,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,16 +2515,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,16 +2536,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,16 +2557,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,16 +2578,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,16 +2599,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,16 +2620,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,19 +2641,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,16 +2662,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,16 +2683,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,16 +2704,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,16 +2725,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,16 +2746,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,16 +2767,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,16 +2788,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,16 +2809,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,16 +2830,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,16 +2851,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,16 +2872,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2643,16 +2893,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,16 +2914,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,16 +2935,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,16 +2956,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,16 +2977,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,16 +2998,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,16 +3019,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,16 +3040,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,16 +3061,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,16 +3082,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,16 +3103,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,16 +3124,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,16 +3145,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,16 +3166,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,16 +3187,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,16 +3208,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +3229,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>8</v>
@@ -2943,7 +3241,7 @@
         <v>9</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,16 +3250,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,16 +3271,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,16 +3292,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,10 +3313,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>8</v>
@@ -3018,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,16 +3334,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,16 +3355,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,16 +3376,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,16 +3397,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,16 +3418,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,16 +3439,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,16 +3460,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,16 +3481,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,16 +3502,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,16 +3523,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,16 +3544,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,10 +3565,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>8</v>
@@ -3237,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,16 +3586,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,16 +3607,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,16 +3628,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,16 +3649,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,16 +3670,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,16 +3691,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,16 +3712,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,16 +3733,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,16 +3754,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,16 +3775,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,16 +3796,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,16 +3817,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,16 +3838,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,16 +3859,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,16 +3880,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,10 +3901,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>8</v>
@@ -3528,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,16 +3922,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,16 +3943,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,16 +3964,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,16 +3985,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/crypto_list.xlsx
+++ b/crypto_list.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="cap" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="301">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -52,30 +53,30 @@
     <t xml:space="preserve">DeFi</t>
   </si>
   <si>
+    <t xml:space="preserve">1inch1INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$642.85M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AaveAAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.42B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aelfELF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$95.29M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Contracts</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">1inch1INCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$642.85M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AaveAAVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$6.42B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aelfELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$95.29M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Contracts</t>
-  </si>
-  <si>
     <t xml:space="preserve">AeternityAE</t>
   </si>
   <si>
@@ -908,6 +909,21 @@
   </si>
   <si>
     <t xml:space="preserve">ZoraclesZORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitcoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ethereum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ripple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polkadot</t>
   </si>
 </sst>
 </file>
@@ -922,6 +938,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -943,12 +960,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -956,12 +975,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1006,7 +1027,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1031,6 +1052,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,13 +1075,13 @@
   </sheetPr>
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.92"/>
@@ -1098,9 +1123,6 @@
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -1108,20 +1130,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -1129,20 +1149,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -1150,19 +1168,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,10 +1198,10 @@
         <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,10 +1219,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,7 +1243,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,7 +1264,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,10 +1282,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,10 +1324,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1453,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1474,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,7 +1495,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,7 +1516,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1516,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,10 +1576,10 @@
         <v>30</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,7 +1600,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,10 +1618,10 @@
         <v>67</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,10 +1681,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1708,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,7 +1894,7 @@
         <v>27</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,7 +1915,7 @@
         <v>41</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,10 +1933,10 @@
         <v>30</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,10 +1954,10 @@
         <v>30</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1957,10 +1975,10 @@
         <v>30</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,10 +1996,10 @@
         <v>30</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,7 +2020,7 @@
         <v>27</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,10 +2038,10 @@
         <v>30</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,10 +2080,10 @@
         <v>30</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,7 +2104,7 @@
         <v>27</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,10 +2122,10 @@
         <v>8</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +2185,10 @@
         <v>30</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,7 +2209,7 @@
         <v>9</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2230,7 @@
         <v>27</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,7 +2251,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,10 +2290,10 @@
         <v>131</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,10 +2332,10 @@
         <v>30</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,7 +2356,7 @@
         <v>27</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,10 +2458,10 @@
         <v>30</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,10 +2521,10 @@
         <v>154</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,10 +2542,10 @@
         <v>8</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2587,7 @@
         <v>27</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,10 +2605,10 @@
         <v>30</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,10 +2626,10 @@
         <v>30</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,7 +2650,7 @@
         <v>41</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,7 +2692,7 @@
         <v>27</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,10 +2710,10 @@
         <v>8</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2716,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,10 +2752,10 @@
         <v>26</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,7 +2797,7 @@
         <v>41</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2818,7 @@
         <v>41</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +2857,10 @@
         <v>8</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +2902,7 @@
         <v>9</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2923,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,10 +2941,10 @@
         <v>30</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2944,10 +2962,10 @@
         <v>30</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2989,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,7 +3070,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +3091,7 @@
         <v>9</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,10 +3130,10 @@
         <v>8</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,7 +3154,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3154,10 +3172,10 @@
         <v>30</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3196,7 @@
         <v>27</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,10 +3214,10 @@
         <v>30</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +3238,7 @@
         <v>9</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,7 +3280,7 @@
         <v>9</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,7 +3301,7 @@
         <v>9</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,10 +3319,10 @@
         <v>30</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,7 +3364,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,7 +3406,7 @@
         <v>27</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3427,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,7 +3448,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,10 +3466,10 @@
         <v>30</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3490,7 @@
         <v>9</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,10 +3508,10 @@
         <v>30</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,10 +3529,10 @@
         <v>8</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,7 +3553,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3577,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,10 +3613,10 @@
         <v>67</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3658,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,7 +3679,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,7 +3700,7 @@
         <v>27</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3703,7 +3721,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,10 +3739,10 @@
         <v>30</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3742,10 +3760,10 @@
         <v>30</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,7 +3784,7 @@
         <v>9</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,10 +3802,10 @@
         <v>30</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,10 +3823,10 @@
         <v>30</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,10 +3844,10 @@
         <v>8</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,10 +3865,10 @@
         <v>283</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,7 +3889,7 @@
         <v>9</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,7 +3952,7 @@
         <v>41</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +3973,7 @@
         <v>9</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,10 +3991,10 @@
         <v>8</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,7 +4015,7 @@
         <v>41</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4009,4 +4027,69 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.04"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>870811968206</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>199308721408</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>20952203983</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>2897483033</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>20799036269</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>